--- a/Format/Classific/Open Clusters/H/Harvard.xlsx
+++ b/Format/Classific/Open Clusters/H/Harvard.xlsx
@@ -556,10 +556,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -937,5 +940,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>